--- a/server/trainingSets/implicit.xlsx
+++ b/server/trainingSets/implicit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manukastratta/Box Sync/STANFORD/courses/COURSES/FALL-2019/CS197/project/DeText/trainingSets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manukastratta/Box Sync/STANFORD/courses/COURSES/FALL-2019/CS197/197_extensions/DeText/server/trainingSets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0379BD62-E9DE-5841-9C01-2B3ADB63EAC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F30DB5-DDAA-2841-85B2-780292615A91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="212">
   <si>
     <t>bestiality</t>
   </si>
@@ -37,643 +37,625 @@
     <t>atrocious</t>
   </si>
   <si>
-    <t xml:space="preserve">bitch </t>
-  </si>
-  <si>
     <t>barelylegal</t>
   </si>
   <si>
     <t>scream</t>
   </si>
   <si>
+    <t>beastality</t>
+  </si>
+  <si>
+    <t>cry</t>
+  </si>
+  <si>
+    <t>sexist</t>
+  </si>
+  <si>
+    <t>against women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bondage </t>
+  </si>
+  <si>
+    <t>beastial</t>
+  </si>
+  <si>
+    <t>escape</t>
+  </si>
+  <si>
+    <t>sexualized</t>
+  </si>
+  <si>
+    <t>harassment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domination </t>
+  </si>
+  <si>
+    <t>beastiality</t>
+  </si>
+  <si>
+    <t>pain</t>
+  </si>
+  <si>
+    <t>bodies</t>
+  </si>
+  <si>
+    <t>violating</t>
+  </si>
+  <si>
+    <t>sadism</t>
+  </si>
+  <si>
+    <t>slammed</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>misconduct</t>
+  </si>
+  <si>
+    <t>sodomize</t>
+  </si>
+  <si>
+    <t>slam</t>
+  </si>
+  <si>
+    <t>misogynistic</t>
+  </si>
+  <si>
+    <t>troubling</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>choke</t>
+  </si>
+  <si>
+    <t>hostile</t>
+  </si>
+  <si>
+    <t>consent</t>
+  </si>
+  <si>
+    <t>sodomy</t>
+  </si>
+  <si>
+    <t>sexslave</t>
+  </si>
+  <si>
+    <t>beat</t>
+  </si>
+  <si>
+    <t>shaming</t>
+  </si>
+  <si>
+    <t>rapist</t>
+  </si>
+  <si>
+    <t>tied up</t>
+  </si>
+  <si>
+    <t>slave</t>
+  </si>
+  <si>
+    <t>brutal</t>
+  </si>
+  <si>
+    <t>intimidating</t>
+  </si>
+  <si>
+    <t>survivors</t>
+  </si>
+  <si>
+    <t>spread legs</t>
+  </si>
+  <si>
+    <t>smack</t>
+  </si>
+  <si>
+    <t>force</t>
+  </si>
+  <si>
+    <t>degrading</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>penetration</t>
+  </si>
+  <si>
+    <t>belittling</t>
+  </si>
+  <si>
+    <t>incident</t>
+  </si>
+  <si>
+    <t>erotic</t>
+  </si>
+  <si>
+    <t>silencing</t>
+  </si>
+  <si>
+    <t>trauma</t>
+  </si>
+  <si>
+    <t>erotism</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>nude</t>
+  </si>
+  <si>
+    <t>violation</t>
+  </si>
+  <si>
+    <t>self-defense</t>
+  </si>
+  <si>
+    <t>slut</t>
+  </si>
+  <si>
+    <t>harm</t>
+  </si>
+  <si>
+    <t>victims</t>
+  </si>
+  <si>
+    <t>throating</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>victim</t>
+  </si>
+  <si>
+    <t>jailbait</t>
+  </si>
+  <si>
+    <t>psychological</t>
+  </si>
+  <si>
+    <t>attacker</t>
+  </si>
+  <si>
+    <t>gender-based</t>
+  </si>
+  <si>
+    <t>attackers</t>
+  </si>
+  <si>
+    <t>gendered</t>
+  </si>
+  <si>
+    <t>toxic</t>
+  </si>
+  <si>
+    <t>targeted</t>
+  </si>
+  <si>
+    <t>masculinity</t>
+  </si>
+  <si>
+    <t>perpetrators</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>stranger</t>
+  </si>
+  <si>
+    <t>drugged</t>
+  </si>
+  <si>
+    <t>intimate</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>trigger</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>harrowing</t>
+  </si>
+  <si>
+    <t>instil</t>
+  </si>
+  <si>
+    <t>distressing</t>
+  </si>
+  <si>
+    <t>domestic violence</t>
+  </si>
+  <si>
+    <t>triggering</t>
+  </si>
+  <si>
+    <t>stalk</t>
+  </si>
+  <si>
+    <t>perpetrator</t>
+  </si>
+  <si>
+    <t>fearful</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>graphic</t>
+  </si>
+  <si>
+    <t>frightened</t>
+  </si>
+  <si>
+    <t>abusive</t>
+  </si>
+  <si>
+    <t>pinned down</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>intimidation</t>
+  </si>
+  <si>
+    <t>offensive</t>
+  </si>
+  <si>
+    <t>allegation</t>
+  </si>
+  <si>
+    <t>insulting</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>harmful</t>
+  </si>
+  <si>
+    <t>stereotypes</t>
+  </si>
+  <si>
+    <t>thigh</t>
+  </si>
+  <si>
+    <t>skirt</t>
+  </si>
+  <si>
+    <t>humiliating</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>blackmailing</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>accused</t>
+  </si>
+  <si>
+    <t>knock</t>
+  </si>
+  <si>
+    <t>invasive</t>
+  </si>
+  <si>
+    <t>struggled</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>shushing</t>
+  </si>
+  <si>
+    <t>unsure</t>
+  </si>
+  <si>
+    <t>press</t>
+  </si>
+  <si>
+    <t>suspected</t>
+  </si>
+  <si>
+    <t>arm</t>
+  </si>
+  <si>
+    <t>silence</t>
+  </si>
+  <si>
+    <t>banged</t>
+  </si>
+  <si>
+    <t>alleges</t>
+  </si>
+  <si>
+    <t>pulling</t>
+  </si>
+  <si>
+    <t>froze</t>
+  </si>
+  <si>
+    <t>bare</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>skin</t>
+  </si>
+  <si>
+    <t>groped</t>
+  </si>
+  <si>
+    <t>#metoo</t>
+  </si>
+  <si>
+    <t>aggressively</t>
+  </si>
+  <si>
+    <t>empowering</t>
+  </si>
+  <si>
+    <t>penetrating</t>
+  </si>
+  <si>
+    <t>discomfort</t>
+  </si>
+  <si>
+    <t>shaking</t>
+  </si>
+  <si>
+    <t>inappropriate</t>
+  </si>
+  <si>
+    <t>swollen</t>
+  </si>
+  <si>
+    <t>flagrant</t>
+  </si>
+  <si>
+    <t>bruised</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>scared</t>
+  </si>
+  <si>
+    <t>accusations</t>
+  </si>
+  <si>
+    <t>crying</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>predatory</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>distress</t>
+  </si>
+  <si>
+    <t>unacceptable</t>
+  </si>
+  <si>
+    <t>threatened</t>
+  </si>
+  <si>
+    <t>survivor</t>
+  </si>
+  <si>
+    <t>unsafe</t>
+  </si>
+  <si>
+    <t>apology</t>
+  </si>
+  <si>
+    <t>disgusted</t>
+  </si>
+  <si>
+    <t>scars</t>
+  </si>
+  <si>
+    <t>undid</t>
+  </si>
+  <si>
+    <t>investigate</t>
+  </si>
+  <si>
+    <t>survival</t>
+  </si>
+  <si>
+    <t>confidential</t>
+  </si>
+  <si>
+    <t>forcing</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>perform</t>
+  </si>
+  <si>
+    <t>outrage</t>
+  </si>
+  <si>
+    <t>penetrated</t>
+  </si>
+  <si>
+    <t>stiff</t>
+  </si>
+  <si>
+    <t>post-traumatic</t>
+  </si>
+  <si>
+    <t>victim-blaming</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>unconscious</t>
+  </si>
+  <si>
+    <t>filthy</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>witness</t>
+  </si>
+  <si>
+    <t>painful</t>
+  </si>
+  <si>
+    <t>painfully</t>
+  </si>
+  <si>
+    <t>cruel</t>
+  </si>
+  <si>
+    <t>assailant</t>
+  </si>
+  <si>
+    <t>aggressive</t>
+  </si>
+  <si>
+    <t>traumatizing</t>
+  </si>
+  <si>
+    <t>perpetrated</t>
+  </si>
+  <si>
+    <t>voyeur</t>
+  </si>
+  <si>
+    <t>exploitative</t>
+  </si>
+  <si>
+    <t>retraumatizing</t>
+  </si>
+  <si>
+    <t>images</t>
+  </si>
+  <si>
+    <t>nudity</t>
+  </si>
+  <si>
+    <t>retaliation</t>
+  </si>
+  <si>
+    <t>justice</t>
+  </si>
+  <si>
+    <t>groping</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>distraught</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>invalidate</t>
+  </si>
+  <si>
+    <t>blindfolded</t>
+  </si>
+  <si>
+    <t>revictimized</t>
+  </si>
+  <si>
+    <t>knifepoint</t>
+  </si>
+  <si>
+    <t>shove</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>frustration</t>
+  </si>
+  <si>
+    <t>dehumanizing</t>
+  </si>
+  <si>
+    <t>blacked (out)</t>
+  </si>
+  <si>
+    <t>kissing</t>
+  </si>
+  <si>
+    <t>prison</t>
+  </si>
+  <si>
+    <t>intoxicated</t>
+  </si>
+  <si>
+    <t>denial</t>
+  </si>
+  <si>
+    <t>indecent</t>
+  </si>
+  <si>
+    <t>content warning</t>
+  </si>
+  <si>
+    <t>taking advantage</t>
+  </si>
+  <si>
+    <t>breast</t>
+  </si>
+  <si>
+    <t>breasts</t>
+  </si>
+  <si>
+    <t>buttocks</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
     <t>abuse</t>
-  </si>
-  <si>
-    <t>bitches</t>
-  </si>
-  <si>
-    <t>beastality</t>
-  </si>
-  <si>
-    <t>cry</t>
-  </si>
-  <si>
-    <t>sexist</t>
-  </si>
-  <si>
-    <t>against women</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bondage </t>
-  </si>
-  <si>
-    <t>beastial</t>
-  </si>
-  <si>
-    <t>escape</t>
-  </si>
-  <si>
-    <t>sexualized</t>
-  </si>
-  <si>
-    <t>harassment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domination </t>
-  </si>
-  <si>
-    <t>beastiality</t>
-  </si>
-  <si>
-    <t>pain</t>
-  </si>
-  <si>
-    <t>bodies</t>
-  </si>
-  <si>
-    <t>violating</t>
-  </si>
-  <si>
-    <t>sadism</t>
-  </si>
-  <si>
-    <t>angry</t>
-  </si>
-  <si>
-    <t>slammed</t>
-  </si>
-  <si>
-    <t>threats</t>
-  </si>
-  <si>
-    <t>misconduct</t>
-  </si>
-  <si>
-    <t>sodomize</t>
-  </si>
-  <si>
-    <t>addict</t>
-  </si>
-  <si>
-    <t>slam</t>
-  </si>
-  <si>
-    <t>misogynistic</t>
-  </si>
-  <si>
-    <t>troubling</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>choke</t>
-  </si>
-  <si>
-    <t>hostile</t>
-  </si>
-  <si>
-    <t>consent</t>
-  </si>
-  <si>
-    <t>sodomy</t>
-  </si>
-  <si>
-    <t>sexslave</t>
-  </si>
-  <si>
-    <t>beat</t>
-  </si>
-  <si>
-    <t>shaming</t>
-  </si>
-  <si>
-    <t>rapist</t>
-  </si>
-  <si>
-    <t>tied up</t>
-  </si>
-  <si>
-    <t>slave</t>
-  </si>
-  <si>
-    <t>brutal</t>
-  </si>
-  <si>
-    <t>intimidating</t>
-  </si>
-  <si>
-    <t>survivors</t>
-  </si>
-  <si>
-    <t>spread legs</t>
-  </si>
-  <si>
-    <t>smack</t>
-  </si>
-  <si>
-    <t>force</t>
-  </si>
-  <si>
-    <t>degrading</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>penetration</t>
-  </si>
-  <si>
-    <t>belittling</t>
-  </si>
-  <si>
-    <t>incident</t>
-  </si>
-  <si>
-    <t>erotic</t>
-  </si>
-  <si>
-    <t>silencing</t>
-  </si>
-  <si>
-    <t>trauma</t>
-  </si>
-  <si>
-    <t>erotism</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>nude</t>
-  </si>
-  <si>
-    <t>violation</t>
-  </si>
-  <si>
-    <t>self-defense</t>
-  </si>
-  <si>
-    <t>slut</t>
-  </si>
-  <si>
-    <t>harm</t>
-  </si>
-  <si>
-    <t>victims</t>
-  </si>
-  <si>
-    <t>throating</t>
-  </si>
-  <si>
-    <t>suffering</t>
-  </si>
-  <si>
-    <t>victim</t>
-  </si>
-  <si>
-    <t>jailbait</t>
-  </si>
-  <si>
-    <t>psychological</t>
-  </si>
-  <si>
-    <t>attacker</t>
-  </si>
-  <si>
-    <t>gender-based</t>
-  </si>
-  <si>
-    <t>attackers</t>
-  </si>
-  <si>
-    <t>gendered</t>
-  </si>
-  <si>
-    <t>toxic</t>
-  </si>
-  <si>
-    <t>targeted</t>
-  </si>
-  <si>
-    <t>masculinity</t>
-  </si>
-  <si>
-    <t>perpetrators</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>stranger</t>
-  </si>
-  <si>
-    <t>drugged</t>
-  </si>
-  <si>
-    <t>intimate</t>
-  </si>
-  <si>
-    <t>memory</t>
-  </si>
-  <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>trigger</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>harrowing</t>
-  </si>
-  <si>
-    <t>instil</t>
-  </si>
-  <si>
-    <t>distressing</t>
-  </si>
-  <si>
-    <t>domestic violence</t>
-  </si>
-  <si>
-    <t>triggering</t>
-  </si>
-  <si>
-    <t>stalk</t>
-  </si>
-  <si>
-    <t>perpetrator</t>
-  </si>
-  <si>
-    <t>fearful</t>
-  </si>
-  <si>
-    <t>desperate</t>
-  </si>
-  <si>
-    <t>graphic</t>
-  </si>
-  <si>
-    <t>frightened</t>
-  </si>
-  <si>
-    <t>abusive</t>
-  </si>
-  <si>
-    <t>pinned down</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>intimidation</t>
-  </si>
-  <si>
-    <t>offensive</t>
-  </si>
-  <si>
-    <t>allegation</t>
-  </si>
-  <si>
-    <t>insulting</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>harmful</t>
-  </si>
-  <si>
-    <t>stereotypes</t>
-  </si>
-  <si>
-    <t>thigh</t>
-  </si>
-  <si>
-    <t>skirt</t>
-  </si>
-  <si>
-    <t>humiliating</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>blackmailing</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>knock</t>
-  </si>
-  <si>
-    <t>invasive</t>
-  </si>
-  <si>
-    <t>struggled</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>shushing</t>
-  </si>
-  <si>
-    <t>unsure</t>
-  </si>
-  <si>
-    <t>press</t>
-  </si>
-  <si>
-    <t>suspected</t>
-  </si>
-  <si>
-    <t>arm</t>
-  </si>
-  <si>
-    <t>silence</t>
-  </si>
-  <si>
-    <t>banged</t>
-  </si>
-  <si>
-    <t>alleges</t>
-  </si>
-  <si>
-    <t>pulling</t>
-  </si>
-  <si>
-    <t>froze</t>
-  </si>
-  <si>
-    <t>bare</t>
-  </si>
-  <si>
-    <t>blame</t>
-  </si>
-  <si>
-    <t>skin</t>
-  </si>
-  <si>
-    <t>groped</t>
-  </si>
-  <si>
-    <t>#metoo</t>
-  </si>
-  <si>
-    <t>aggressively</t>
-  </si>
-  <si>
-    <t>empowering</t>
-  </si>
-  <si>
-    <t>penetrating</t>
-  </si>
-  <si>
-    <t>discomfort</t>
-  </si>
-  <si>
-    <t>shaking</t>
-  </si>
-  <si>
-    <t>inappropriate</t>
-  </si>
-  <si>
-    <t>swollen</t>
-  </si>
-  <si>
-    <t>flagrant</t>
-  </si>
-  <si>
-    <t>bruised</t>
-  </si>
-  <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>scared</t>
-  </si>
-  <si>
-    <t>accusations</t>
-  </si>
-  <si>
-    <t>crying</t>
-  </si>
-  <si>
-    <t>police</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>predatory</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>distress</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>unacceptable</t>
-  </si>
-  <si>
-    <t>threatened</t>
-  </si>
-  <si>
-    <t>survivor</t>
-  </si>
-  <si>
-    <t>unsafe</t>
-  </si>
-  <si>
-    <t>apology</t>
-  </si>
-  <si>
-    <t>disgusted</t>
-  </si>
-  <si>
-    <t>scars</t>
-  </si>
-  <si>
-    <t>undid</t>
-  </si>
-  <si>
-    <t>investigate</t>
-  </si>
-  <si>
-    <t>survival</t>
-  </si>
-  <si>
-    <t>confidential</t>
-  </si>
-  <si>
-    <t>forcing</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>perform</t>
-  </si>
-  <si>
-    <t>outrage</t>
-  </si>
-  <si>
-    <t>penetrated</t>
-  </si>
-  <si>
-    <t>stiff</t>
-  </si>
-  <si>
-    <t>post-traumatic</t>
-  </si>
-  <si>
-    <t>victim-blaming</t>
-  </si>
-  <si>
-    <t>blood</t>
-  </si>
-  <si>
-    <t>unconscious</t>
-  </si>
-  <si>
-    <t>filthy</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>witness</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>painfully</t>
-  </si>
-  <si>
-    <t>cruel</t>
-  </si>
-  <si>
-    <t>assailant</t>
-  </si>
-  <si>
-    <t>aggressive</t>
-  </si>
-  <si>
-    <t>traumatizing</t>
-  </si>
-  <si>
-    <t>perpetrated</t>
-  </si>
-  <si>
-    <t>voyeur</t>
-  </si>
-  <si>
-    <t>exploitative</t>
-  </si>
-  <si>
-    <t>retraumatizing</t>
-  </si>
-  <si>
-    <t>images</t>
-  </si>
-  <si>
-    <t>nudity</t>
-  </si>
-  <si>
-    <t>retaliation</t>
-  </si>
-  <si>
-    <t>justice</t>
-  </si>
-  <si>
-    <t>groping</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>distraught</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>invalidate</t>
-  </si>
-  <si>
-    <t>blindfolded</t>
-  </si>
-  <si>
-    <t>revictimized</t>
-  </si>
-  <si>
-    <t>knifepoint</t>
-  </si>
-  <si>
-    <t>shove</t>
-  </si>
-  <si>
-    <t>serial</t>
-  </si>
-  <si>
-    <t>frustration</t>
-  </si>
-  <si>
-    <t>dehumanizing</t>
-  </si>
-  <si>
-    <t>blacked (out)</t>
-  </si>
-  <si>
-    <t>addiction</t>
-  </si>
-  <si>
-    <t>kissing</t>
-  </si>
-  <si>
-    <t>prison</t>
-  </si>
-  <si>
-    <t>intoxicated</t>
-  </si>
-  <si>
-    <t>denial</t>
-  </si>
-  <si>
-    <t>indecent</t>
-  </si>
-  <si>
-    <t>content warning</t>
-  </si>
-  <si>
-    <t>taking advantage</t>
-  </si>
-  <si>
-    <t>breast</t>
-  </si>
-  <si>
-    <t>breasts</t>
-  </si>
-  <si>
-    <t>buttocks</t>
-  </si>
-  <si>
-    <t>fighting</t>
   </si>
 </sst>
 </file>
@@ -996,10 +978,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G242"/>
+  <dimension ref="A1:G243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1010,1169 +992,1155 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+        <v>130</v>
+      </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>111</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>183</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>125</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>167</v>
+      <c r="A17" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>1</v>
+      <c r="A20" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>1</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>74</v>
+      <c r="A23" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>127</v>
+      <c r="A24" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>131</v>
+      <c r="A25" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
-        <v>6</v>
+      <c r="A26" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
-        <v>10</v>
+      <c r="A27" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
-        <v>15</v>
+      <c r="A28" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
-        <v>20</v>
+      <c r="A29" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
-        <v>5</v>
+      <c r="A33" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
-        <v>9</v>
+      <c r="A34" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>205</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>114</v>
+      <c r="A36" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>132</v>
+      <c r="A37" s="5" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>198</v>
+      <c r="A38" s="5" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>14</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A42" s="5" t="s">
-        <v>214</v>
+      <c r="A42" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A43" s="5" t="s">
-        <v>215</v>
+      <c r="A43" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A44" s="5" t="s">
-        <v>216</v>
+      <c r="A44" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>165</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>34</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A68" s="1" t="s">
-        <v>195</v>
+      <c r="A68" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A73" s="5" t="s">
-        <v>19</v>
+      <c r="A73" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>82</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>59</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>166</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>194</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>193</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>36</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>189</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>211</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>83</v>
+        <v>191</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="1" t="s">
-        <v>102</v>
+      <c r="A114" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="5" t="s">
-        <v>70</v>
+      <c r="A119" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>192</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>200</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>28</v>
+        <v>184</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>190</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>21</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="1" t="s">
-        <v>179</v>
+      <c r="A137" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="8" t="s">
-        <v>53</v>
+      <c r="A142" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>168</v>
+        <v>95</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>100</v>
+        <v>201</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>149</v>
+        <v>66</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="1" t="s">
-        <v>71</v>
+      <c r="A156" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
-        <v>191</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>199</v>
+        <v>58</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="5" t="s">
-        <v>24</v>
+      <c r="A163" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
-        <v>161</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
-        <v>201</v>
+        <v>22</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="1" t="s">
-        <v>126</v>
+      <c r="A179" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="1" t="s">
-        <v>133</v>
+      <c r="A181" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="1" t="s">
-        <v>111</v>
+      <c r="A182" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="1" t="s">
-        <v>31</v>
+      <c r="A183" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="9" t="s">
-        <v>64</v>
+      <c r="A186" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="7" t="s">
-        <v>29</v>
+      <c r="A188" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="7" t="s">
-        <v>38</v>
+      <c r="A189" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="8" t="s">
-        <v>48</v>
+      <c r="A190" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
-        <v>60</v>
+        <v>151</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
-        <v>2</v>
+        <v>119</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="1" t="s">
-        <v>68</v>
+      <c r="A198" s="11" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
-        <v>196</v>
+        <v>72</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
-        <v>164</v>
+        <v>105</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="1" t="s">
-        <v>124</v>
+      <c r="A203" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="1" t="s">
-        <v>142</v>
+      <c r="A204" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="11" t="s">
-        <v>213</v>
+      <c r="A205" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="1" t="s">
-        <v>27</v>
+      <c r="A209" s="10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="9" t="s">
-        <v>67</v>
+      <c r="A210" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="7" t="s">
-        <v>43</v>
+      <c r="A211" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="10" t="s">
-        <v>92</v>
+      <c r="A216" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
-        <v>175</v>
+        <v>20</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
-        <v>162</v>
+        <v>57</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
-        <v>158</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
-        <v>69</v>
+        <v>172</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A225" s="1" t="s">
-        <v>173</v>
-      </c>
+      <c r="A225" s="1"/>
     </row>
     <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A226" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="A226" s="1"/>
     </row>
     <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A227" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A227" s="1"/>
     </row>
     <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A228" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="A228" s="1"/>
     </row>
     <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A229" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A229" s="5"/>
     </row>
     <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A230" s="1" t="s">
-        <v>186</v>
-      </c>
+      <c r="A230" s="5"/>
     </row>
     <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A231" s="1" t="s">
-        <v>178</v>
-      </c>
+      <c r="A231" s="1"/>
     </row>
     <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A232" s="7"/>
+      <c r="A232" s="1"/>
     </row>
     <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A233" s="1"/>
+      <c r="A233" s="7"/>
     </row>
     <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="1"/>
@@ -2201,9 +2169,12 @@
     <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="1"/>
     </row>
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A243" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A242">
-    <sortCondition ref="A1:A242"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A243">
+    <sortCondition ref="A2:A243"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
